--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66663809-F823-4B21-8168-B479A94CDE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11586379-9121-4CFB-AC51-E8057FCCCF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -41,9 +41,6 @@
     <t>GD-Demography</t>
   </si>
   <si>
-    <t>Pendiente de arreglo</t>
-  </si>
-  <si>
     <t>GD - Ethnicgroup</t>
   </si>
   <si>
@@ -63,13 +60,121 @@
   </si>
   <si>
     <t>ADD COLUMN</t>
+  </si>
+  <si>
+    <t>"Ethnicgroup 1"</t>
+  </si>
+  <si>
+    <t>"Religion" -1</t>
+  </si>
+  <si>
+    <t>Bibliography_111019.csv</t>
+  </si>
+  <si>
+    <t>GD_Government</t>
+  </si>
+  <si>
+    <t>GD_Economy</t>
+  </si>
+  <si>
+    <t>"Agriculture"</t>
+  </si>
+  <si>
+    <t>"Exchanche Rate"</t>
+  </si>
+  <si>
+    <t>GD_Urbanism</t>
+  </si>
+  <si>
+    <t>"Urban Population"</t>
+  </si>
+  <si>
+    <t>"Rural Population</t>
+  </si>
+  <si>
+    <t>"Urban (/)"</t>
+  </si>
+  <si>
+    <t>"Rural(/)"</t>
+  </si>
+  <si>
+    <t>GD_Infrastruture</t>
+  </si>
+  <si>
+    <t>GD_ElectricGenerationMix</t>
+  </si>
+  <si>
+    <t>"Hydropower"</t>
+  </si>
+  <si>
+    <t>"Biomass/Biofuel"</t>
+  </si>
+  <si>
+    <t>GD_ServiceAcces</t>
+  </si>
+  <si>
+    <t>"Iliteraci rate %"</t>
+  </si>
+  <si>
+    <t>"Internet Access rate %"</t>
+  </si>
+  <si>
+    <t>GD_Shelter</t>
+  </si>
+  <si>
+    <t>"SlumPopulationRate"</t>
+  </si>
+  <si>
+    <t>Plantear metodo específico</t>
+  </si>
+  <si>
+    <t>"Mujeres menores de 5 años"</t>
+  </si>
+  <si>
+    <t>"Hombres mayores de 60 años"</t>
+  </si>
+  <si>
+    <t>"Growth rate of populatoin (%)"</t>
+  </si>
+  <si>
+    <t>Pendiente de confirmación</t>
+  </si>
+  <si>
+    <t>"Rural agua (%)"</t>
+  </si>
+  <si>
+    <t>"Urbano agua (%)</t>
+  </si>
+  <si>
+    <t>"Rural saneamiento(%)"</t>
+  </si>
+  <si>
+    <t>"Urbano saneamiento(%)"</t>
+  </si>
+  <si>
+    <t>"Rural electricidad (%)"</t>
+  </si>
+  <si>
+    <t>"Urbano electricidad (%)"</t>
+  </si>
+  <si>
+    <t>TABLA 3</t>
+  </si>
+  <si>
+    <t>"Life expentancy at birth (years)"</t>
+  </si>
+  <si>
+    <t>EspecificDataCamp</t>
+  </si>
+  <si>
+    <t>Camp_MovementReason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +183,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,15 +206,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,13 +234,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,59 +573,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11586379-9121-4CFB-AC51-E8057FCCCF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5A6A4-8DF7-4AAE-B022-F028DFC414C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -168,13 +168,85 @@
   </si>
   <si>
     <t>Camp_MovementReason</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Entities_Interview_results.csv</t>
+  </si>
+  <si>
+    <t>Camp_Integration</t>
+  </si>
+  <si>
+    <t>Camp_NaturalHazard</t>
+  </si>
+  <si>
+    <t>"Enviormental_Issues:Risk:Risk_Flood"</t>
+  </si>
+  <si>
+    <t>"Enviormental_Issues:Deforestation"</t>
+  </si>
+  <si>
+    <t>Camp_LocalVegetation</t>
+  </si>
+  <si>
+    <t>"Enviormental_Issues:Native_Plant"</t>
+  </si>
+  <si>
+    <t>"Enviormental_Issues:Native_Crops"</t>
+  </si>
+  <si>
+    <t>Camp_LocalCrop</t>
+  </si>
+  <si>
+    <t>Camp_ClimaticRegion</t>
+  </si>
+  <si>
+    <t>inconsistencia CSV</t>
+  </si>
+  <si>
+    <t>"Tropical (Write one: Af, Aw or Am)"</t>
+  </si>
+  <si>
+    <t>"Continental (Write one: Dfa, Bwa, Dsa or Dfb, Dwb, Dsb)"</t>
+  </si>
+  <si>
+    <t>metodo específico</t>
+  </si>
+  <si>
+    <t>método específico</t>
+  </si>
+  <si>
+    <t>"Max (ºC)"</t>
+  </si>
+  <si>
+    <t>"Relative humidity (%)"</t>
+  </si>
+  <si>
+    <t>"Wind speed"</t>
+  </si>
+  <si>
+    <t>"Max (mm)"</t>
+  </si>
+  <si>
+    <t>Camp_EnergySource</t>
+  </si>
+  <si>
+    <t>2 csv distintos</t>
+  </si>
+  <si>
+    <t>"Fuel_Cost Main_Fuel"</t>
+  </si>
+  <si>
+    <t>Rellenar un formulario para ver"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +270,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,12 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,17 +656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
@@ -940,10 +1021,18 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -960,17 +1049,27 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -980,17 +1079,27 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1000,17 +1109,27 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1020,29 +1139,55 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1050,7 +1195,9 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5A6A4-8DF7-4AAE-B022-F028DFC414C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D15FDC4-BE9D-4179-84C6-87C540F47B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -233,13 +233,41 @@
     <t>Camp_EnergySource</t>
   </si>
   <si>
-    <t>2 csv distintos</t>
-  </si>
-  <si>
-    <t>"Fuel_Cost Main_Fuel"</t>
-  </si>
-  <si>
     <t>Rellenar un formulario para ver"</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Local_leaders_v3_results.csv</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Local_leaders_v3_results.csv 
+NAUTIA_1_0_Entities_Interview_results.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fuel_Cost Main_Fuel" </t>
+  </si>
+  <si>
+    <t>Costs:cost_firewood</t>
+  </si>
+  <si>
+    <t>Costs:cost_solar_panel</t>
+  </si>
+  <si>
+    <t>Camp_Mobility</t>
+  </si>
+  <si>
+    <t>"GENERAL_INFORMATION:Movement_outside"</t>
+  </si>
+  <si>
+    <t>"GENERAL_INFORMATION:Distance"</t>
+  </si>
+  <si>
+    <t>Camp_Shelter</t>
+  </si>
+  <si>
+    <t>"Shelter:Housing_Improvement"</t>
+  </si>
+  <si>
+    <t>pendiente de confirmación</t>
   </si>
 </sst>
 </file>
@@ -333,13 +361,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +696,7 @@
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
@@ -1178,39 +1209,57 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
+      <c r="C35" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1227,14 +1276,34 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D15FDC4-BE9D-4179-84C6-87C540F47B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB0F54-7E73-4D4E-8AED-481D17A1F1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -268,6 +268,108 @@
   </si>
   <si>
     <t>pendiente de confirmación</t>
+  </si>
+  <si>
+    <t>Socio Económicos</t>
+  </si>
+  <si>
+    <t>SE_Population</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Entities_Interview_results.csv
+NAUTIA_1_0_General_form_v3_results.csv</t>
+  </si>
+  <si>
+    <t>NECESARIO METODO ESPECIAL
+ (Hombres + Mujeres)</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_General_form_v3_results.csv</t>
+  </si>
+  <si>
+    <t>"Social_information:Disability"</t>
+  </si>
+  <si>
+    <t>SE_HouseHold_Composition</t>
+  </si>
+  <si>
+    <t>"General:Old_women"</t>
+  </si>
+  <si>
+    <t>"General:Children"</t>
+  </si>
+  <si>
+    <t>Necesario metodo especial y reordenacion</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Survey_household_v6_results.csv</t>
+  </si>
+  <si>
+    <t>SE_PersonalHygiene</t>
+  </si>
+  <si>
+    <t>"Sanitation:Personal_hygiene"</t>
+  </si>
+  <si>
+    <t>SE_CleaningMaterial</t>
+  </si>
+  <si>
+    <t>"Sanitation:Excreta"</t>
+  </si>
+  <si>
+    <t>SE_SafetyPlace</t>
+  </si>
+  <si>
+    <t>"Feel_Safe:Street_morning"</t>
+  </si>
+  <si>
+    <t>"Feel_Safe:Firewood_collection_001"</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Women_Focus_Group2_results.csv</t>
+  </si>
+  <si>
+    <t>SE_ConflictArea</t>
+  </si>
+  <si>
+    <t>"Trouble_Spots"</t>
+  </si>
+  <si>
+    <t>Revisar respuesta</t>
+  </si>
+  <si>
+    <t>"Settlement_security:secur_committees"</t>
+  </si>
+  <si>
+    <t>NAUTIA_1_0_Local_leaders_v3_results.csv
+NAUTIA_1_0_Entities_Interview_results.csv</t>
+  </si>
+  <si>
+    <t>"Women_Patrol"</t>
+  </si>
+  <si>
+    <t>SE_SafetyCommitte</t>
+  </si>
+  <si>
+    <t>SE_SafetyLatrines</t>
+  </si>
+  <si>
+    <t>NAUTIA_V1_0_Sanitation_Infrastructre_results.csv</t>
+  </si>
+  <si>
+    <t>"Public_Latrines:Sex_segregated"</t>
+  </si>
+  <si>
+    <t>"Public_Latrines:Lighting"</t>
+  </si>
+  <si>
+    <t>SE_Economy</t>
+  </si>
+  <si>
+    <t>"Costs:cost_basic_basket"</t>
+  </si>
+  <si>
+    <t>SE_IncomeType</t>
   </si>
 </sst>
 </file>
@@ -685,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,7 +800,7 @@
     <col min="3" max="3" width="37.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1169,7 +1271,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="s">
@@ -1209,7 +1311,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
@@ -1229,7 +1331,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
@@ -1247,7 +1349,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1265,7 +1367,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1275,7 +1377,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
@@ -1293,7 +1395,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
@@ -1305,6 +1407,425 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB0F54-7E73-4D4E-8AED-481D17A1F1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D685E-FE52-411D-A4E7-54FA0470B1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D685E-FE52-411D-A4E7-54FA0470B1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD97E0-A3EA-45D3-85C7-E88BEBA3F807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -370,13 +370,16 @@
   </si>
   <si>
     <t>SE_IncomeType</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +414,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -472,6 +483,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,6 +851,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -859,9 +876,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD97E0-A3EA-45D3-85C7-E88BEBA3F807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CDB16-9F87-4E79-A089-BD09A2B7E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CDB16-9F87-4E79-A089-BD09A2B7E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E773D2-8378-4023-A604-76B75445D21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>"Growth rate of populatoin (%)"</t>
-  </si>
-  <si>
-    <t>Pendiente de confirmación</t>
   </si>
   <si>
     <t>"Rural agua (%)"</t>
@@ -803,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -852,7 +849,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -870,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -886,6 +883,9 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -914,6 +914,9 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -928,6 +931,9 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -940,6 +946,9 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -968,6 +977,9 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1000,6 +1012,9 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1007,28 +1022,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1038,6 +1051,9 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1066,6 +1082,9 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1094,6 +1113,9 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1135,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1136,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1144,7 +1166,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1170,16 +1192,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1198,16 +1220,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1228,16 +1250,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1246,7 +1268,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1258,16 +1280,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1276,7 +1298,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1288,38 +1310,38 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1328,54 +1350,54 @@
     </row>
     <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1394,16 +1416,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1412,7 +1434,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1424,7 +1446,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1447,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1455,19 +1477,19 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E44" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1477,13 +1499,13 @@
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1491,16 +1513,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1511,7 +1533,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1521,16 +1543,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1549,16 +1571,16 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1577,16 +1599,16 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1605,16 +1627,16 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1623,7 +1645,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
@@ -1635,22 +1657,22 @@
     </row>
     <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1667,16 +1689,16 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1695,13 +1717,13 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1721,7 +1743,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="1"/>

--- a/DesarrolloPy/NormasArregloCSV.xlsx
+++ b/DesarrolloPy/NormasArregloCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Universidad\PlataformaRefugiados\NAUTIA\DesarrolloPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E773D2-8378-4023-A604-76B75445D21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5EAB23-1735-4B50-AED6-7A26CF5CE0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{591C895C-A150-40E8-91FB-92FBB0EAF9F6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>GENERAL DATA - GD</t>
   </si>
@@ -370,6 +370,66 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community </t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>HostCommunity</t>
+  </si>
+  <si>
+    <t>HostCommunityHasCamp</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Camp_Has_Country</t>
+  </si>
+  <si>
+    <t>SQLscript</t>
+  </si>
+  <si>
+    <t>GD_Ethnicgroup_HasCountry</t>
+  </si>
+  <si>
+    <t>Commun_Language</t>
+  </si>
+  <si>
+    <t>Commun_Religion</t>
+  </si>
+  <si>
+    <t>Commun_Religion_Has_Country</t>
+  </si>
+  <si>
+    <t>Commun_Religion_Has_Camp</t>
+  </si>
+  <si>
+    <t>Commun_Language_Has_Country</t>
+  </si>
+  <si>
+    <t>Commun_Language_Has_Camp</t>
+  </si>
+  <si>
+    <t>Camp_MovementReasons</t>
+  </si>
+  <si>
+    <t>Camp_MovementReasons_Has_Camp</t>
+  </si>
+  <si>
+    <t>Cam_Integration_HasCamp</t>
+  </si>
+  <si>
+    <t>Camp_NaturalHazard_Has_Camp</t>
+  </si>
+  <si>
+    <t>Done-SQLscript</t>
+  </si>
+  <si>
+    <t>Camp_LocalVegetation_Has_Camp</t>
   </si>
 </sst>
 </file>
@@ -471,17 +531,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -798,1070 +862,1333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B497A2A-6133-4211-9CA4-B1DE4BEF4C7C}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="I53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="L53" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="I62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="J62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="L62" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="G65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F67" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="H67" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E69" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="G69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E70" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E71" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="F71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="G71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="H71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E72" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="3" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E73" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F73" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H73" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="I73" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="J73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="K73" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="L73" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5" t="s">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="H74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="5:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="F75" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G75" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="J75" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E76" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="J76" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="3" t="s">
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E77" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="F77" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="G77" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="H77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="3" t="s">
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F79" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="G79" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="H79" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E80" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D82" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="3" t="s">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="G83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="H83" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="I83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="J83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="K83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="L83" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="3" t="s">
+    <row r="84" spans="4:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="F84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="G84" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="H84" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="I84" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="H85" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="I85" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="3" t="s">
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E86" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="F86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="G86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="H86" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="3" t="s">
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E88" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F88" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="G88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="H88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="3" t="s">
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E90" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="F90" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="3" t="s">
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="F92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="H92" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="3" t="s">
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="F94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="G94" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="H94" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E95" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="3" t="s">
+      <c r="F95" s="5"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="4:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="F96" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="G96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="H96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="I96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="J96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="3" t="s">
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E97" s="4"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="F98" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="G98" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="H98" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="3" t="s">
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E99" s="4"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="F100" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="G100" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="3" t="s">
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E104" s="4"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E105" s="4"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E106" s="4"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E108" s="4"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E109" s="4"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E110" s="4"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E111" s="4"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E112" s="4"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
